--- a/flows/CPER_fund_flow_data.xlsx
+++ b/flows/CPER_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3090"/>
+  <dimension ref="A1:B3107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31335,6 +31335,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3091">
+      <c r="A3091" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B3091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092">
+      <c r="A3092" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B3092" t="n">
+        <v>2.4295</v>
+      </c>
+    </row>
+    <row r="3093">
+      <c r="A3093" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B3093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094">
+      <c r="A3094" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B3094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095">
+      <c r="A3095" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B3095" t="n">
+        <v>-1.19685</v>
+      </c>
+    </row>
+    <row r="3096">
+      <c r="A3096" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B3096" t="n">
+        <v>1.19345</v>
+      </c>
+    </row>
+    <row r="3097">
+      <c r="A3097" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B3097" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098">
+      <c r="A3098" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B3098" t="n">
+        <v>-1.20075</v>
+      </c>
+    </row>
+    <row r="3099">
+      <c r="A3099" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B3099" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100">
+      <c r="A3100" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101">
+      <c r="A3101" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102">
+      <c r="A3102" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3103">
+      <c r="A3103" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104">
+      <c r="A3104" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105">
+      <c r="A3105" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3105" t="n">
+        <v>4.8964</v>
+      </c>
+    </row>
+    <row r="3106">
+      <c r="A3106" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3106" t="n">
+        <v>1.2632</v>
+      </c>
+    </row>
+    <row r="3107">
+      <c r="A3107" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3107" t="n">
+        <v>3.77835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
